--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H2">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N2">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O2">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P2">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q2">
-        <v>31.27003091270889</v>
+        <v>15.11491124841511</v>
       </c>
       <c r="R2">
-        <v>281.4302782143801</v>
+        <v>136.034201235736</v>
       </c>
       <c r="S2">
-        <v>0.04085328174625309</v>
+        <v>0.02207202730491951</v>
       </c>
       <c r="T2">
-        <v>0.04085328174625309</v>
+        <v>0.02207202730491951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H3">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q3">
-        <v>0.4965124160111112</v>
+        <v>0.2652331655244445</v>
       </c>
       <c r="R3">
-        <v>4.4686117441</v>
+        <v>2.38709848972</v>
       </c>
       <c r="S3">
-        <v>0.0006486773767009862</v>
+        <v>0.0003873151205065544</v>
       </c>
       <c r="T3">
-        <v>0.0006486773767009861</v>
+        <v>0.0003873151205065546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H4">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N4">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O4">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P4">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q4">
-        <v>1.121980617815556</v>
+        <v>1.443008863594667</v>
       </c>
       <c r="R4">
-        <v>10.09782556034</v>
+        <v>12.987079772352</v>
       </c>
       <c r="S4">
-        <v>0.001465831307343701</v>
+        <v>0.002107199342096172</v>
       </c>
       <c r="T4">
-        <v>0.001465831307343701</v>
+        <v>0.002107199342096173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.596231</v>
       </c>
       <c r="I5">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J5">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N5">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O5">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P5">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q5">
-        <v>569.8439542397352</v>
+        <v>515.6268456294275</v>
       </c>
       <c r="R5">
-        <v>5128.595588157616</v>
+        <v>4640.641610664847</v>
       </c>
       <c r="S5">
-        <v>0.7444826543005848</v>
+        <v>0.7529604129879094</v>
       </c>
       <c r="T5">
-        <v>0.7444826543005848</v>
+        <v>0.7529604129879095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.596231</v>
       </c>
       <c r="I6">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J6">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q6">
-        <v>9.048107411812778</v>
+        <v>9.048107411812779</v>
       </c>
       <c r="R6">
         <v>81.432966706315</v>
       </c>
       <c r="S6">
-        <v>0.01182105903243337</v>
+        <v>0.01321278508150797</v>
       </c>
       <c r="T6">
-        <v>0.01182105903243337</v>
+        <v>0.01321278508150798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.596231</v>
       </c>
       <c r="I7">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J7">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N7">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O7">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P7">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q7">
-        <v>20.44621809364789</v>
+        <v>49.22649536752267</v>
       </c>
       <c r="R7">
-        <v>184.015962842831</v>
+        <v>443.038458307704</v>
       </c>
       <c r="S7">
-        <v>0.02671232116005523</v>
+        <v>0.07188454712172943</v>
       </c>
       <c r="T7">
-        <v>0.02671232116005523</v>
+        <v>0.07188454712172943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H8">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I8">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J8">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N8">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O8">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P8">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q8">
-        <v>126.6411681742099</v>
+        <v>84.52234465709601</v>
       </c>
       <c r="R8">
-        <v>1139.770513567889</v>
+        <v>760.701101913864</v>
       </c>
       <c r="S8">
-        <v>0.1654525810523871</v>
+        <v>0.1234264276174865</v>
       </c>
       <c r="T8">
-        <v>0.1654525810523871</v>
+        <v>0.1234264276174866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H9">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I9">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J9">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q9">
-        <v>2.010836271706111</v>
+        <v>1.48317966692</v>
       </c>
       <c r="R9">
-        <v>18.097526445355</v>
+        <v>13.34861700228</v>
       </c>
       <c r="S9">
-        <v>0.002627092406237675</v>
+        <v>0.00216586002843995</v>
       </c>
       <c r="T9">
-        <v>0.002627092406237675</v>
+        <v>0.00216586002843995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H10">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I10">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J10">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N10">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O10">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P10">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q10">
-        <v>4.543933343258556</v>
+        <v>8.069282743872002</v>
       </c>
       <c r="R10">
-        <v>40.895400089327</v>
+        <v>72.62354469484801</v>
       </c>
       <c r="S10">
-        <v>0.005936501618004131</v>
+        <v>0.01178342539540443</v>
       </c>
       <c r="T10">
-        <v>0.005936501618004132</v>
+        <v>0.01178342539540443</v>
       </c>
     </row>
   </sheetData>
